--- a/examples/wangetal2018/out/NetworkFiles/AC_0.5_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_0.5_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
   <si>
     <t>pipe_name</t>
   </si>
@@ -48,10 +48,19 @@
     <t>PI01_pre_C_0_0</t>
   </si>
   <si>
+    <t>PI01_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_pre_C_0_2</t>
+  </si>
+  <si>
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_1</t>
+    <t>PI02_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_pre_C_0_4</t>
   </si>
   <si>
     <t>PI02_remaining</t>
@@ -60,19 +69,34 @@
     <t>PI03_pre_C_1_0</t>
   </si>
   <si>
+    <t>PI03_pre_C_1_1</t>
+  </si>
+  <si>
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
-  </si>
-  <si>
     <t>PI04_pre_C_1_2</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_5</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_3</t>
+    <t>PI05_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_8</t>
   </si>
   <si>
     <t>PI05_remaining</t>
@@ -84,16 +108,22 @@
     <t>PI06_remaining</t>
   </si>
   <si>
-    <t>PI07_pre_C_2_1</t>
+    <t>PI07_pre_C_2_2</t>
   </si>
   <si>
     <t>PI07_remaining</t>
   </si>
   <si>
-    <t>PI08</t>
-  </si>
-  <si>
-    <t>PI09</t>
+    <t>PI08_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_remaining</t>
+  </si>
+  <si>
+    <t>PI09_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_remaining</t>
   </si>
   <si>
     <t>N01</t>
@@ -102,10 +132,19 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
+    <t>N_post_C_0_2</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
-    <t>N_post_C_0_1</t>
+    <t>N_post_C_0_3</t>
+  </si>
+  <si>
+    <t>N_post_C_0_4</t>
   </si>
   <si>
     <t>N03_C</t>
@@ -114,19 +153,34 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_1</t>
-  </si>
-  <si>
     <t>N_post_C_1_2</t>
   </si>
   <si>
+    <t>N_post_C_1_3</t>
+  </si>
+  <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N_post_C_1_5</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_3</t>
+    <t>N_post_C_1_6</t>
+  </si>
+  <si>
+    <t>N_post_C_1_7</t>
+  </si>
+  <si>
+    <t>N_post_C_1_8</t>
   </si>
   <si>
     <t>N06_C</t>
@@ -135,49 +189,91 @@
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N_post_C_2_1</t>
+  </si>
+  <si>
+    <t>N_post_C_2_2</t>
+  </si>
+  <si>
+    <t>N08_C</t>
+  </si>
+  <si>
+    <t>N_post_C_3_0</t>
+  </si>
+  <si>
+    <t>N_post_C_3_1</t>
+  </si>
+  <si>
+    <t>N_post_C_3_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_4</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_5</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N_pre_C_2_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
-    <t>N_post_C_2_1</t>
-  </si>
-  <si>
-    <t>N08_C</t>
+    <t>N_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N_pre_C_3_0</t>
   </si>
   <si>
     <t>N09</t>
   </si>
   <si>
-    <t>N_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>N06</t>
-  </si>
-  <si>
-    <t>N_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_2_1</t>
-  </si>
-  <si>
-    <t>N08</t>
+    <t>N_pre_C_3_2</t>
   </si>
   <si>
     <t>N10</t>
@@ -216,6 +312,15 @@
     <t>C_0_1</t>
   </si>
   <si>
+    <t>C_0_2</t>
+  </si>
+  <si>
+    <t>C_0_3</t>
+  </si>
+  <si>
+    <t>C_0_4</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -231,6 +336,21 @@
     <t>C_1_3</t>
   </si>
   <si>
+    <t>C_1_4</t>
+  </si>
+  <si>
+    <t>C_1_5</t>
+  </si>
+  <si>
+    <t>C_1_6</t>
+  </si>
+  <si>
+    <t>C_1_7</t>
+  </si>
+  <si>
+    <t>C_1_8</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -240,7 +360,19 @@
     <t>C_2_1</t>
   </si>
   <si>
+    <t>C_2_2</t>
+  </si>
+  <si>
     <t>CS3</t>
+  </si>
+  <si>
+    <t>C_3_0</t>
+  </si>
+  <si>
+    <t>C_3_1</t>
+  </si>
+  <si>
+    <t>C_3_2</t>
   </si>
   <si>
     <t>supply_name</t>
@@ -628,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,16 +797,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>23.33333333333333</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -683,7 +815,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -691,16 +823,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>16.66666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -709,7 +841,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -717,16 +849,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>6.666666666666664</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -735,7 +867,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -743,16 +875,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>23.33333333333334</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -761,7 +893,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -769,16 +901,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -787,7 +919,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -795,16 +927,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>5.5</v>
+        <v>11.66666666666666</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -813,7 +945,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -821,16 +953,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>20.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -839,7 +971,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -847,16 +979,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -865,7 +997,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -873,16 +1005,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -891,7 +1023,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -899,16 +1031,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -917,7 +1049,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -925,16 +1057,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -943,7 +1075,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -951,16 +1083,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>641.35</v>
       </c>
       <c r="E13">
-        <v>33.33333333333334</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>0.012</v>
@@ -969,7 +1101,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -977,16 +1109,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>16.66666666666666</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -995,7 +1127,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1003,16 +1135,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>641.35</v>
       </c>
       <c r="E15">
-        <v>16.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>0.012</v>
@@ -1021,7 +1153,7 @@
         <v>9.525</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1029,16 +1161,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>641.35</v>
       </c>
       <c r="E16">
-        <v>33.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0.012</v>
@@ -1047,7 +1179,7 @@
         <v>9.525</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1055,16 +1187,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>641.35</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>0.012</v>
@@ -1073,7 +1205,7 @@
         <v>9.525</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1081,16 +1213,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>641.35</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>0.012</v>
@@ -1099,7 +1231,267 @@
         <v>9.525</v>
       </c>
       <c r="H18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>641.35</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>9.525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>641.35</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>9.525</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>641.35</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>9.525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>641.35</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>9.525</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>641.35</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>9.525</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>641.35</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>9.525</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>641.35</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>9.525</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>641.35</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>9.525</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>641.35</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>0.012</v>
+      </c>
+      <c r="G27">
+        <v>9.525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1117,242 +1509,418 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B18">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B23">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B25">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B30">
-        <v>6.082278702557526</v>
+      <c r="B35">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52">
+        <v>4.71984827318464</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1370,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1379,33 +1947,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1422,16 +1990,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1448,19 +2016,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1474,16 +2042,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1500,16 +2068,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1526,19 +2094,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1552,16 +2120,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1578,19 +2146,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1604,16 +2172,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1630,16 +2198,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1656,19 +2224,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E12">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1677,6 +2245,318 @@
         <v>0.78</v>
       </c>
       <c r="H12">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.78</v>
+      </c>
+      <c r="H13">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.78</v>
+      </c>
+      <c r="H14">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.78</v>
+      </c>
+      <c r="H15">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.78</v>
+      </c>
+      <c r="H16">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E17">
+        <v>12.5</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.78</v>
+      </c>
+      <c r="H17">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.78</v>
+      </c>
+      <c r="H18">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.78</v>
+      </c>
+      <c r="H19">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.78</v>
+      </c>
+      <c r="H20">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E21">
+        <v>12.5</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.78</v>
+      </c>
+      <c r="H21">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.78</v>
+      </c>
+      <c r="H22">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.78</v>
+      </c>
+      <c r="H23">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.78</v>
+      </c>
+      <c r="H24">
         <v>0.357</v>
       </c>
     </row>
@@ -1695,27 +2575,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
   </sheetData>
@@ -1733,21 +2613,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1755,10 +2635,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1766,10 +2646,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1790,15 +2670,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1806,7 +2686,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>0.5</v>

--- a/examples/wangetal2018/out/NetworkFiles/AC_0.5_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_0.5_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="164">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,10 +45,16 @@
     <t>steel_grade</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_pre_C_0_1</t>
+    <t>PI01_0_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_0_remaining</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
   </si>
   <si>
     <t>PI01_pre_C_0_2</t>
@@ -57,7 +63,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_3</t>
+    <t>PI02_0_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
   </si>
   <si>
     <t>PI02_pre_C_0_4</t>
@@ -66,7 +75,10 @@
     <t>PI02_remaining</t>
   </si>
   <si>
-    <t>PI03_pre_C_1_0</t>
+    <t>PI03_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_0_remaining</t>
   </si>
   <si>
     <t>PI03_pre_C_1_1</t>
@@ -75,13 +87,19 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_4</t>
+    <t>PI04_0_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>PI04_0_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_5</t>
@@ -90,40 +108,73 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_6</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_7</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_8</t>
+    <t>PI05_0_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_9</t>
   </si>
   <si>
     <t>PI05_remaining</t>
   </si>
   <si>
-    <t>PI06_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>PI06_remaining</t>
-  </si>
-  <si>
-    <t>PI07_pre_C_2_2</t>
-  </si>
-  <si>
-    <t>PI07_remaining</t>
-  </si>
-  <si>
-    <t>PI08_pre_C_3_0</t>
-  </si>
-  <si>
-    <t>PI08_remaining</t>
-  </si>
-  <si>
-    <t>PI09_pre_C_3_2</t>
-  </si>
-  <si>
-    <t>PI09_remaining</t>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1_pre_C_2_0</t>
+  </si>
+  <si>
+    <t>PI06_1_remaining</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>PI07_1_remaining</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_1_remaining</t>
+  </si>
+  <si>
+    <t>PI08</t>
+  </si>
+  <si>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_1_remaining</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
@@ -132,9 +183,15 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_2</t>
   </si>
   <si>
@@ -144,6 +201,9 @@
     <t>N_post_C_0_3</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_4</t>
   </si>
   <si>
@@ -153,6 +213,9 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
@@ -165,9 +228,15 @@
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_4</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_5</t>
   </si>
   <si>
@@ -180,33 +249,66 @@
     <t>N_post_C_1_7</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_8</t>
   </si>
   <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N_post_C_1_9</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_1</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_2</t>
   </si>
   <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_1</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_2</t>
   </si>
   <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -252,6 +354,9 @@
     <t>N_pre_C_1_8</t>
   </si>
   <si>
+    <t>N_pre_C_1_9</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -349,6 +454,9 @@
   </si>
   <si>
     <t>C_1_8</t>
+  </si>
+  <si>
+    <t>C_1_9</t>
   </si>
   <si>
     <t>CS2</t>
@@ -760,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>641.35</v>
@@ -815,7 +923,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -823,16 +931,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>11.66666666666667</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -841,7 +949,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -849,16 +957,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>11.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -867,7 +975,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -875,16 +983,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -893,7 +1001,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -901,16 +1009,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>6.666666666666664</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -919,7 +1027,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -927,16 +1035,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>11.66666666666666</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -945,7 +1053,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -953,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>11.66666666666667</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -971,7 +1079,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -979,16 +1087,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -997,7 +1105,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1005,16 +1113,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>3.333333333333329</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -1023,7 +1131,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1031,16 +1139,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>5.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -1049,7 +1157,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1057,16 +1165,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>7.5</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -1075,7 +1183,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1083,16 +1191,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>641.35</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>3.93181818181818</v>
       </c>
       <c r="F13">
         <v>0.012</v>
@@ -1101,7 +1209,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1109,16 +1217,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>7.88636363636364</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -1127,7 +1235,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1135,16 +1243,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>641.35</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>7.86363636363636</v>
       </c>
       <c r="F15">
         <v>0.012</v>
@@ -1153,7 +1261,7 @@
         <v>9.525</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1161,16 +1269,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <v>641.35</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3.95454545454546</v>
       </c>
       <c r="F16">
         <v>0.012</v>
@@ -1179,7 +1287,7 @@
         <v>9.525</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1187,16 +1295,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>641.35</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="F17">
         <v>0.012</v>
@@ -1205,7 +1313,7 @@
         <v>9.525</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1213,16 +1321,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>641.35</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>0.3939393939393909</v>
       </c>
       <c r="F18">
         <v>0.012</v>
@@ -1231,7 +1339,7 @@
         <v>9.525</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1239,16 +1347,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D19">
         <v>641.35</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>11.42424242424243</v>
       </c>
       <c r="F19">
         <v>0.012</v>
@@ -1257,7 +1365,7 @@
         <v>9.525</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1265,16 +1373,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>641.35</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>4.742424242424242</v>
       </c>
       <c r="F20">
         <v>0.012</v>
@@ -1283,7 +1391,7 @@
         <v>9.525</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1291,16 +1399,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>641.35</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>7.075757575757578</v>
       </c>
       <c r="F21">
         <v>0.012</v>
@@ -1309,7 +1417,7 @@
         <v>9.525</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1317,16 +1425,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <v>641.35</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="F22">
         <v>0.012</v>
@@ -1335,7 +1443,7 @@
         <v>9.525</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1343,16 +1451,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>641.35</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>2.727272727272734</v>
       </c>
       <c r="F23">
         <v>0.012</v>
@@ -1361,7 +1469,7 @@
         <v>9.525</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1369,16 +1477,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>641.35</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>11.81818181818181</v>
       </c>
       <c r="F24">
         <v>0.012</v>
@@ -1387,7 +1495,7 @@
         <v>9.525</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1395,16 +1503,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>641.35</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>2.121212121212125</v>
       </c>
       <c r="F25">
         <v>0.012</v>
@@ -1413,7 +1521,7 @@
         <v>9.525</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1421,16 +1529,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D26">
         <v>641.35</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>9.696969696969688</v>
       </c>
       <c r="F26">
         <v>0.012</v>
@@ -1439,7 +1547,7 @@
         <v>9.525</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,16 +1555,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>641.35</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>6.969696969696983</v>
       </c>
       <c r="F27">
         <v>0.012</v>
@@ -1465,7 +1573,7 @@
         <v>9.525</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1473,25 +1581,467 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>4.848484848484844</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29">
+        <v>641.35</v>
+      </c>
+      <c r="E29">
+        <v>11.81818181818183</v>
+      </c>
+      <c r="F29">
+        <v>0.012</v>
+      </c>
+      <c r="G29">
+        <v>9.525</v>
+      </c>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>641.35</v>
+      </c>
+      <c r="E30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F30">
+        <v>0.012</v>
+      </c>
+      <c r="G30">
+        <v>9.525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>641.35</v>
+      </c>
+      <c r="E31">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="F31">
+        <v>0.012</v>
+      </c>
+      <c r="G31">
+        <v>9.525</v>
+      </c>
+      <c r="H31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>641.35</v>
+      </c>
+      <c r="E32">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="F32">
+        <v>0.012</v>
+      </c>
+      <c r="G32">
+        <v>9.525</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33">
+        <v>641.35</v>
+      </c>
+      <c r="E33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F33">
+        <v>0.012</v>
+      </c>
+      <c r="G33">
+        <v>9.525</v>
+      </c>
+      <c r="H33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
         <v>85</v>
       </c>
-      <c r="D28">
-        <v>641.35</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>0.012</v>
-      </c>
-      <c r="G28">
-        <v>9.525</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="D34">
+        <v>641.35</v>
+      </c>
+      <c r="E34">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F34">
+        <v>0.012</v>
+      </c>
+      <c r="G34">
+        <v>9.525</v>
+      </c>
+      <c r="H34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35">
+        <v>641.35</v>
+      </c>
+      <c r="E35">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="F35">
+        <v>0.012</v>
+      </c>
+      <c r="G35">
+        <v>9.525</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>641.35</v>
+      </c>
+      <c r="E36">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="F36">
+        <v>0.012</v>
+      </c>
+      <c r="G36">
+        <v>9.525</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37">
+        <v>641.35</v>
+      </c>
+      <c r="E37">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F37">
+        <v>0.012</v>
+      </c>
+      <c r="G37">
+        <v>9.525</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38">
+        <v>641.35</v>
+      </c>
+      <c r="E38">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F38">
+        <v>0.012</v>
+      </c>
+      <c r="G38">
+        <v>9.525</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39">
+        <v>641.35</v>
+      </c>
+      <c r="E39">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="F39">
+        <v>0.012</v>
+      </c>
+      <c r="G39">
+        <v>9.525</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>641.35</v>
+      </c>
+      <c r="E40">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="F40">
+        <v>0.012</v>
+      </c>
+      <c r="G40">
+        <v>9.525</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41">
+        <v>641.35</v>
+      </c>
+      <c r="E41">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F41">
+        <v>0.012</v>
+      </c>
+      <c r="G41">
+        <v>9.525</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>641.35</v>
+      </c>
+      <c r="E42">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F42">
+        <v>0.012</v>
+      </c>
+      <c r="G42">
+        <v>9.525</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43">
+        <v>641.35</v>
+      </c>
+      <c r="E43">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="F43">
+        <v>0.012</v>
+      </c>
+      <c r="G43">
+        <v>9.525</v>
+      </c>
+      <c r="H43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>641.35</v>
+      </c>
+      <c r="E44">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="F44">
+        <v>0.012</v>
+      </c>
+      <c r="G44">
+        <v>9.525</v>
+      </c>
+      <c r="H44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>641.35</v>
+      </c>
+      <c r="E45">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F45">
+        <v>0.012</v>
+      </c>
+      <c r="G45">
+        <v>9.525</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1509,15 +2059,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>4.71984827318464</v>
@@ -1525,7 +2075,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>4.71984827318464</v>
@@ -1533,7 +2083,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>4.71984827318464</v>
@@ -1541,7 +2091,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>4.71984827318464</v>
@@ -1549,7 +2099,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>4.71984827318464</v>
@@ -1557,7 +2107,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>4.71984827318464</v>
@@ -1565,7 +2115,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>4.71984827318464</v>
@@ -1573,7 +2123,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>4.71984827318464</v>
@@ -1581,7 +2131,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>4.71984827318464</v>
@@ -1589,7 +2139,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>4.71984827318464</v>
@@ -1597,7 +2147,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>4.71984827318464</v>
@@ -1605,7 +2155,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>4.71984827318464</v>
@@ -1613,7 +2163,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>4.71984827318464</v>
@@ -1621,7 +2171,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>4.71984827318464</v>
@@ -1629,7 +2179,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>4.71984827318464</v>
@@ -1637,7 +2187,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>4.71984827318464</v>
@@ -1645,7 +2195,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>4.71984827318464</v>
@@ -1653,7 +2203,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>4.71984827318464</v>
@@ -1661,7 +2211,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>4.71984827318464</v>
@@ -1669,7 +2219,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>4.71984827318464</v>
@@ -1677,7 +2227,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>4.71984827318464</v>
@@ -1685,7 +2235,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>4.71984827318464</v>
@@ -1693,7 +2243,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>4.71984827318464</v>
@@ -1701,7 +2251,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B25">
         <v>4.71984827318464</v>
@@ -1709,7 +2259,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>4.71984827318464</v>
@@ -1717,7 +2267,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>4.71984827318464</v>
@@ -1725,7 +2275,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>4.71984827318464</v>
@@ -1733,7 +2283,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>4.71984827318464</v>
@@ -1741,7 +2291,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>4.71984827318464</v>
@@ -1749,7 +2299,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>4.71984827318464</v>
@@ -1757,7 +2307,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>4.71984827318464</v>
@@ -1765,7 +2315,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B33">
         <v>4.71984827318464</v>
@@ -1773,7 +2323,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>4.71984827318464</v>
@@ -1781,7 +2331,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>4.71984827318464</v>
@@ -1789,7 +2339,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B36">
         <v>4.71984827318464</v>
@@ -1797,7 +2347,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>4.71984827318464</v>
@@ -1805,7 +2355,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>4.71984827318464</v>
@@ -1813,7 +2363,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B39">
         <v>4.71984827318464</v>
@@ -1821,7 +2371,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>4.71984827318464</v>
@@ -1829,7 +2379,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B41">
         <v>4.71984827318464</v>
@@ -1837,7 +2387,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42">
         <v>4.71984827318464</v>
@@ -1845,7 +2395,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>4.71984827318464</v>
@@ -1853,7 +2403,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B44">
         <v>4.71984827318464</v>
@@ -1861,7 +2411,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>4.71984827318464</v>
@@ -1869,7 +2419,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>4.71984827318464</v>
@@ -1877,7 +2427,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>4.71984827318464</v>
@@ -1885,7 +2435,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>4.71984827318464</v>
@@ -1893,7 +2443,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B49">
         <v>4.71984827318464</v>
@@ -1901,7 +2451,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>4.71984827318464</v>
@@ -1909,7 +2459,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>4.71984827318464</v>
@@ -1917,9 +2467,153 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>85</v>
       </c>
-      <c r="B52">
+      <c r="B54">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70">
         <v>4.71984827318464</v>
       </c>
     </row>
@@ -1930,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +2632,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1947,30 +2641,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>4.71984827318464</v>
@@ -1990,13 +2684,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>4.71984827318464</v>
@@ -2016,13 +2710,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>4.71984827318464</v>
@@ -2042,13 +2736,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>4.71984827318464</v>
@@ -2068,13 +2762,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>4.71984827318464</v>
@@ -2094,13 +2788,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>4.71984827318464</v>
@@ -2120,13 +2814,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>4.71984827318464</v>
@@ -2146,13 +2840,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>4.71984827318464</v>
@@ -2172,13 +2866,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>4.71984827318464</v>
@@ -2198,13 +2892,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>4.71984827318464</v>
@@ -2224,13 +2918,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>4.71984827318464</v>
@@ -2250,13 +2944,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>4.71984827318464</v>
@@ -2276,13 +2970,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
       <c r="D14">
         <v>4.71984827318464</v>
@@ -2302,13 +2996,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
       </c>
       <c r="D15">
         <v>4.71984827318464</v>
@@ -2328,13 +3022,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>4.71984827318464</v>
@@ -2354,19 +3048,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>4.71984827318464</v>
       </c>
       <c r="E17">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2380,19 +3074,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>4.71984827318464</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2406,13 +3100,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>4.71984827318464</v>
@@ -2432,13 +3126,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <v>4.71984827318464</v>
@@ -2458,19 +3152,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>4.71984827318464</v>
       </c>
       <c r="E21">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2484,19 +3178,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>4.71984827318464</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2510,13 +3204,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>4.71984827318464</v>
@@ -2536,13 +3230,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>4.71984827318464</v>
@@ -2557,6 +3251,32 @@
         <v>0.78</v>
       </c>
       <c r="H24">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.78</v>
+      </c>
+      <c r="H25">
         <v>0.357</v>
       </c>
     </row>
@@ -2575,24 +3295,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>4.71984827318464</v>
@@ -2613,21 +3333,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -2635,10 +3355,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -2646,10 +3366,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -2670,15 +3390,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -2686,7 +3406,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>0.5</v>
